--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\my_own_pypi\color blink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68428146-9EEA-4DC3-93E9-C5A69E46BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB69284-E83D-4217-B16A-8A6311D368AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{F6D7A469-72C3-46B4-B5A6-A11351046D80}"/>
+    <workbookView xWindow="18450" yWindow="1455" windowWidth="57600" windowHeight="15285" xr2:uid="{1A45D76C-FDD0-4923-9783-50A13CDC8DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,18 +44,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3950B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,22 +379,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D9B51-3E7F-4355-B527-2F01B2BE6964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02FA22B-44DE-4BC1-8B74-89A9BAEDF115}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\my_own_pypi\color blink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB69284-E83D-4217-B16A-8A6311D368AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5A3DF-498C-40E9-AC1F-587DB1A06D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18450" yWindow="1455" windowWidth="57600" windowHeight="15285" xr2:uid="{1A45D76C-FDD0-4923-9783-50A13CDC8DD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{1A45D76C-FDD0-4923-9783-50A13CDC8DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8585D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +387,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02FA22B-44DE-4BC1-8B74-89A9BAEDF115}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BG25" sqref="BG25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="60" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>